--- a/test_data/Test_case_to_count_calories.xlsx
+++ b/test_data/Test_case_to_count_calories.xlsx
@@ -25,7 +25,7 @@
     <t>Calculate Calories</t>
   </si>
   <si>
-    <t>Referece Document</t>
+    <t>Reference Document</t>
   </si>
   <si>
     <t>If any</t>
@@ -152,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -172,12 +172,6 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <color rgb="FF36464E"/>
-      <name val="&quot;Roboto Mono&quot;"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -188,8 +182,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5F5"/>
-        <bgColor rgb="FFF5F5F5"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -199,28 +193,25 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -439,8 +430,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.25"/>
-    <col customWidth="1" min="2" max="2" width="13.25"/>
+    <col customWidth="1" min="1" max="1" width="17.63"/>
+    <col customWidth="1" min="2" max="2" width="16.75"/>
     <col customWidth="1" min="3" max="3" width="37.25"/>
     <col customWidth="1" min="4" max="4" width="17.75"/>
     <col customWidth="1" min="5" max="5" width="27.38"/>
@@ -511,7 +502,7 @@
       <c r="Y2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -576,7 +567,7 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>45193.0</v>
       </c>
       <c r="C5" s="2"/>
@@ -607,7 +598,7 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -633,8 +624,8 @@
       <c r="Y6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -660,31 +651,31 @@
       <c r="Y7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="2"/>
@@ -705,31 +696,31 @@
       <c r="Y8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="2"/>
@@ -750,31 +741,31 @@
       <c r="Y9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="2"/>
@@ -795,31 +786,31 @@
       <c r="Y10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J11" s="2"/>
@@ -840,31 +831,31 @@
       <c r="Y11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J12" s="2"/>
@@ -885,31 +876,31 @@
       <c r="Y12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J13" s="2"/>
@@ -930,21 +921,21 @@
       <c r="Y13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J14" s="2"/>
@@ -970,7 +961,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
